--- a/Datos/Anuario2024/120401_ZonasVerdes.xlsx
+++ b/Datos/Anuario2024/120401_ZonasVerdes.xlsx
@@ -1,246 +1,608 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2 graf1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="0" sheetId="8" r:id="rId1"/>
+    <sheet name="1" sheetId="63" r:id="rId2"/>
+    <sheet name="2" sheetId="107" r:id="rId3"/>
+    <sheet name="2 graf1" sheetId="108" r:id="rId4"/>
+    <sheet name="3" sheetId="110" r:id="rId5"/>
+    <sheet name="4" sheetId="126" r:id="rId6"/>
+    <sheet name="5" sheetId="140" r:id="rId7"/>
+    <sheet name="6" sheetId="45" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="4">'[1]1.3'!$A$1:$C$44</definedName>
+    <definedName name="_R1_4" localSheetId="5">'[1]1.3'!$A$1:$C$44</definedName>
+    <definedName name="_R1_4" localSheetId="6">'[1]1.3'!$A$1:$C$44</definedName>
     <definedName name="_R1_4">'[2]1.3'!$A$1:$C$44</definedName>
+    <definedName name="_R1_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R1_6" localSheetId="4">'[1]1.6'!$A$1:$J$3</definedName>
+    <definedName name="_R1_6" localSheetId="5">'[1]1.6'!$A$1:$J$3</definedName>
+    <definedName name="_R1_6" localSheetId="6">'[1]1.6'!$A$1:$J$3</definedName>
     <definedName name="_R1_6">'[2]1.6'!$A$1:$J$3</definedName>
+    <definedName name="_R1_7" localSheetId="4">'[1]1.4'!$A$1:$B$26</definedName>
+    <definedName name="_R1_7" localSheetId="5">'[1]1.4'!$A$1:$B$26</definedName>
+    <definedName name="_R1_7" localSheetId="6">'[1]1.4'!$A$1:$B$26</definedName>
     <definedName name="_R1_7">'[2]1.4'!$A$1:$B$26</definedName>
+    <definedName name="_R1_8" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
+    <definedName name="_R1_9" localSheetId="4">'[1]1.2'!$A$1:$B$12</definedName>
+    <definedName name="_R1_9" localSheetId="5">'[1]1.2'!$A$1:$B$12</definedName>
+    <definedName name="_R1_9" localSheetId="6">'[1]1.2'!$A$1:$B$12</definedName>
     <definedName name="_R1_9">'[2]1.2'!$A$1:$B$12</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_15">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_17">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="4">'[1]2.2'!$A$1:$G$18</definedName>
+    <definedName name="_R2_2" localSheetId="5">'[1]2.2'!$A$1:$G$18</definedName>
+    <definedName name="_R2_2" localSheetId="6">'[1]2.2'!$A$1:$G$18</definedName>
     <definedName name="_R2_2">'[2]2.2'!$A$1:$G$18</definedName>
+    <definedName name="_R2_3" localSheetId="4">'[1]2.3'!$A$1:$E$12</definedName>
+    <definedName name="_R2_3" localSheetId="5">'[1]2.3'!$A$1:$E$12</definedName>
+    <definedName name="_R2_3" localSheetId="6">'[1]2.3'!$A$1:$E$12</definedName>
     <definedName name="_R2_3">'[2]2.3'!$A$1:$E$12</definedName>
+    <definedName name="_R2_4" localSheetId="4">'[1]2.4'!$A$1:$G$11</definedName>
+    <definedName name="_R2_4" localSheetId="5">'[1]2.4'!$A$1:$G$11</definedName>
+    <definedName name="_R2_4" localSheetId="6">'[1]2.4'!$A$1:$G$11</definedName>
     <definedName name="_R2_4">'[2]2.4'!$A$1:$G$11</definedName>
+    <definedName name="_R2_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="4">'3'!$A$1:$B$14</definedName>
+    <definedName name="_R4_2" localSheetId="5">'4'!$A$1:$B$19</definedName>
+    <definedName name="_R4_2" localSheetId="6">'5'!$A$1:$B$17</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 graf1'!$A$1:$B$23</definedName>
-    <definedName name="_R1_4" localSheetId="4">'[1]1.3'!$A$1:$C$44</definedName>
-    <definedName name="_R1_6" localSheetId="4">'[1]1.6'!$A$1:$J$3</definedName>
-    <definedName name="_R1_7" localSheetId="4">'[1]1.4'!$A$1:$B$26</definedName>
-    <definedName name="_R1_9" localSheetId="4">'[1]1.2'!$A$1:$B$12</definedName>
-    <definedName name="_R2_2" localSheetId="4">'[1]2.2'!$A$1:$G$18</definedName>
-    <definedName name="_R2_3" localSheetId="4">'[1]2.3'!$A$1:$E$12</definedName>
-    <definedName name="_R2_4" localSheetId="4">'[1]2.4'!$A$1:$G$11</definedName>
-    <definedName name="_R4_2" localSheetId="4">'3'!$A$1:$B$14</definedName>
-    <definedName name="_R1_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="5">'[1]1.3'!$A$1:$C$44</definedName>
-    <definedName name="_R1_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_6" localSheetId="5">'[1]1.6'!$A$1:$J$3</definedName>
-    <definedName name="_R1_7" localSheetId="5">'[1]1.4'!$A$1:$B$26</definedName>
-    <definedName name="_R1_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_9" localSheetId="5">'[1]1.2'!$A$1:$B$12</definedName>
-    <definedName name="_R2_15" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="5">'[1]2.2'!$A$1:$G$18</definedName>
-    <definedName name="_R2_3" localSheetId="5">'[1]2.3'!$A$1:$E$12</definedName>
-    <definedName name="_R2_4" localSheetId="5">'[1]2.4'!$A$1:$G$11</definedName>
-    <definedName name="_R2_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="5">'4'!$A$1:$B$19</definedName>
-    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="6">'[1]1.3'!$A$1:$C$44</definedName>
-    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_6" localSheetId="6">'[1]1.6'!$A$1:$J$3</definedName>
-    <definedName name="_R1_7" localSheetId="6">'[1]1.4'!$A$1:$B$26</definedName>
-    <definedName name="_R1_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_9" localSheetId="6">'[1]1.2'!$A$1:$B$12</definedName>
-    <definedName name="_R2_15" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="6">'[1]2.2'!$A$1:$G$18</definedName>
-    <definedName name="_R2_3" localSheetId="6">'[1]2.3'!$A$1:$E$12</definedName>
-    <definedName name="_R2_4" localSheetId="6">'[1]2.4'!$A$1:$G$11</definedName>
-    <definedName name="_R2_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="6">'5'!$A$1:$B$17</definedName>
-    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+  <si>
+    <t>Tramo IV-V</t>
+  </si>
+  <si>
+    <t>Tramo I-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.  Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.  Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.  Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.  Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.  Jesús</t>
+  </si>
+  <si>
+    <t>10.  Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11.  Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12.  Camins al Grau</t>
+  </si>
+  <si>
+    <t>13.  Algirós</t>
+  </si>
+  <si>
+    <t>14.  Benimaclet</t>
+  </si>
+  <si>
+    <t>15.  Rascanya</t>
+  </si>
+  <si>
+    <t>16.  Benicalap</t>
+  </si>
+  <si>
+    <t>17.  Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18.  Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19.  Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Benicalap</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Campus de Tarongers</t>
+  </si>
+  <si>
+    <t>Campus de Blasco Ibáñez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.  l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.  la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.  el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.  l'Olivereta</t>
+  </si>
+  <si>
+    <t>Universitat de València</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>Parque de Cabecera</t>
+  </si>
+  <si>
+    <t>Tramo III</t>
+  </si>
+  <si>
+    <t>Tramo VI</t>
+  </si>
+  <si>
+    <t>Tramo VII</t>
+  </si>
+  <si>
+    <t>Tramo VIII</t>
+  </si>
+  <si>
+    <t>Tramo IX</t>
+  </si>
+  <si>
+    <t>Tramo X-XI</t>
+  </si>
+  <si>
+    <t>Tramo XII</t>
+  </si>
+  <si>
+    <t>Tramo XIV</t>
+  </si>
+  <si>
+    <t>Tramo XVI</t>
+  </si>
+  <si>
+    <t>Jardines del Real</t>
+  </si>
+  <si>
+    <t>Jardín Botánico</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Jardín de las Hespérides</t>
+  </si>
+  <si>
+    <t>Cementerios</t>
+  </si>
+  <si>
+    <t>Universidades Públicas</t>
+  </si>
+  <si>
+    <t>Servicio de Mantenimiento de la Universidad Politécnica de Valencia. Servicio Técnico y de Mantenimiento de la Universitat de València.</t>
+  </si>
+  <si>
+    <t>Dr. Lluch</t>
+  </si>
+  <si>
+    <t>Pinar de les Pedreres</t>
+  </si>
+  <si>
+    <t>Parque Central</t>
+  </si>
+  <si>
+    <t>Parque Malilla</t>
+  </si>
+  <si>
+    <t>Tramo XVII</t>
+  </si>
+  <si>
+    <t>Parque de la Rambleta</t>
+  </si>
+  <si>
+    <t>Parque de Nazaret</t>
+  </si>
+  <si>
+    <t>Parque Oeste</t>
+  </si>
+  <si>
+    <t>Parque Marxalenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parque Orriols </t>
+  </si>
+  <si>
+    <t>Parques urbanos</t>
+  </si>
+  <si>
+    <t>Plaza la Reina</t>
+  </si>
+  <si>
+    <t>Plaza del Carmen</t>
+  </si>
+  <si>
+    <t>Plaza Don Juan de Villarrasa</t>
+  </si>
+  <si>
+    <t>Plaza Vicente Iborra</t>
+  </si>
+  <si>
+    <t>Avenida Reino de València</t>
+  </si>
+  <si>
+    <t>Gran Vía Ramón y Cajal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillem de Castro-Hospital </t>
+  </si>
+  <si>
+    <t>Gran Vía Fernando el Católico</t>
+  </si>
+  <si>
+    <t>Gran Vía Marqués del Turia</t>
+  </si>
+  <si>
+    <t>Alameditas de Serranos</t>
+  </si>
+  <si>
+    <t>Alameditas de Cervantes</t>
+  </si>
+  <si>
+    <t>Jardines del Turia</t>
+  </si>
+  <si>
+    <t>Jardines de especial protección</t>
+  </si>
+  <si>
+    <t>Jardines de barrio y plazas</t>
+  </si>
+  <si>
+    <t>Acompañamiento viario y residencial</t>
+  </si>
+  <si>
+    <t>Bulevares</t>
+  </si>
+  <si>
+    <t>Jardines en el Turia</t>
+  </si>
+  <si>
+    <t>Jardín de Ayora</t>
+  </si>
+  <si>
+    <t>Jardín de Monforte</t>
+  </si>
+  <si>
+    <t>El Parterre</t>
+  </si>
+  <si>
+    <t>La Glorieta</t>
+  </si>
+  <si>
+    <t>Jardín del chalet de Panach</t>
+  </si>
+  <si>
+    <t>La Alameda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle Dr. Juan José Dómine </t>
+  </si>
+  <si>
+    <t>Plaza de la Iglesia de Campanar</t>
+  </si>
+  <si>
+    <t>Plaza Porta del Mar</t>
+  </si>
+  <si>
+    <t>Plaza del Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Jardines Iglesia de San Agustín</t>
+  </si>
+  <si>
+    <t>Jardines Palau de la Generalitat</t>
+  </si>
+  <si>
+    <t>Calle Colón / Palacio de Justicia</t>
+  </si>
+  <si>
+    <r>
+      <t>Nota: Datos de superficie expresados en m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nota: No incluye las zonas verdes del antiguo cauce del río Turia ni la de los cementerios municipales. Datos de superficie expresados en m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Parque de desembocadura</t>
+  </si>
+  <si>
+    <t>Chalet de Blasco Ibañez</t>
+  </si>
+  <si>
+    <t>ZONAS VERDES URBANAS</t>
+  </si>
+  <si>
+    <t>4. Superficie de los jardines de especial protección. 2023</t>
+  </si>
+  <si>
+    <t>5. Superficie de los jardines en el cauce del río Turia. 2023</t>
+  </si>
+  <si>
+    <t>1. Superficie de las zonas verdes urbanas en la ciudad según tipo. 2023</t>
+  </si>
+  <si>
+    <t>2. Número y superficie de las zonas verdes de gestión municipal. Distritos. 2023</t>
+  </si>
+  <si>
+    <t>3. Superficie de los parques urbanos municipales. 2023</t>
+  </si>
+  <si>
+    <t>6. Superficie de las zonas verdes dependientes de la Universitat de València y la Universidad Politécnica de València. 2023</t>
+  </si>
+  <si>
+    <t>Campus Tarongers (Jardín Central)</t>
+  </si>
+  <si>
+    <t>Av. Blasco Ibáñez (Tramo I)</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de València</t>
+  </si>
+  <si>
+    <t>Jardín de Polífilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Servicio de Parques y Jardines y Servicio de Cementerios y Servicios Funerarios. Ayuntamiento de València. </t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Mantenimiento de la Universidad Politécnica de València. Servicio Técnico y de Mantenimiento de la Universitat de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -269,84 +631,85 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -416,12 +779,142 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5046345</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="379095" y="169545"/>
+          <a:ext cx="5038725" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312906" cy="224998"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="506730" y="436245"/>
+          <a:ext cx="312906" cy="224998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="900" baseline="30000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1895,8 +2388,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -3740,1500 +4233,1205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja17">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="40.7109375" customWidth="1" style="3" min="1" max="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>ZONAS VERDES URBANAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja62">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja62"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="32.7109375" customWidth="1" style="9" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="9" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="9" min="3" max="16384"/>
+    <col min="1" max="1" width="32.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>1. Superficie de las zonas verdes urbanas en la ciudad según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
-        <v>5397535.939999999</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>Parques urbanos</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="36">
+        <v>5397535.9399999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="19">
         <v>586092</v>
       </c>
-      <c r="C5" s="28" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Jardines de especial protección</t>
-        </is>
-      </c>
-      <c r="B6" s="15" t="n">
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15">
         <v>515819.94</v>
       </c>
-      <c r="C6" s="28" t="n"/>
-      <c r="D6" s="23" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Jardines del Turia</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
+      <c r="C6" s="28"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="19">
         <v>1234832</v>
       </c>
-      <c r="C7" s="28" t="n"/>
-      <c r="D7" s="23" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Jardines de barrio y plazas</t>
-        </is>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="C7" s="28"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15">
         <v>1566810</v>
       </c>
-      <c r="C8" s="28" t="n"/>
-      <c r="D8" s="23" t="n"/>
-      <c r="G8" s="31" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Acompañamiento viario y residencial</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="n">
+      <c r="C8" s="28"/>
+      <c r="D8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="19">
         <v>843882</v>
       </c>
-      <c r="C9" s="28" t="n"/>
-      <c r="G9" s="23" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Bulevares</t>
-        </is>
-      </c>
-      <c r="B10" s="15" t="n">
+      <c r="C9" s="28"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="15">
         <v>413799</v>
       </c>
-      <c r="C10" s="28" t="n"/>
-      <c r="D10" s="23" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Universidades Públicas</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n">
+      <c r="C10" s="28"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19">
         <v>188879</v>
       </c>
-      <c r="C11" s="28" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Cementerios</t>
-        </is>
-      </c>
-      <c r="B12" s="15" t="n">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="15">
         <v>47422</v>
       </c>
-      <c r="C12" s="15" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Servicio de Parques y Jardines y Servicio de Cementerios y Servicios Funerarios. Ayuntamiento de València. </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t>Servicio de Mantenimiento de la Universidad Politécnica de Valencia. Servicio Técnico y de Mantenimiento de la Universitat de València.</t>
-        </is>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="3" min="2" max="3"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>2. Número y superficie de las zonas verdes de gestión municipal. Distritos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="C3" s="18" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="29">
         <v>756</v>
       </c>
-      <c r="C4" s="36" t="n">
+      <c r="C4" s="29">
         <v>3926403</v>
       </c>
-      <c r="F4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.  Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="n">
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
         <v>45</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="14">
         <v>73034</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.  l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="11">
         <v>156667</v>
       </c>
-      <c r="E6" s="31" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.  Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
         <v>27</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="14">
         <v>59363</v>
       </c>
-      <c r="E7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.  Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
         <v>58</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="11">
         <v>372128</v>
       </c>
-      <c r="E8" s="31" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.  la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
         <v>37</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="14">
         <v>311127</v>
       </c>
-      <c r="E9" s="31" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.  el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9">
         <v>33</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="11">
         <v>212387</v>
       </c>
-      <c r="E10" s="31" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.  l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="n">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
         <v>41</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="14">
         <v>222473</v>
       </c>
-      <c r="E11" s="31" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.  Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
         <v>39</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="11">
         <v>221396</v>
       </c>
-      <c r="E12" s="31" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.  Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="n">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
         <v>41</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="14">
         <v>175379</v>
       </c>
-      <c r="E13" s="31" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>10.  Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n">
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9">
         <v>80</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="11">
         <v>578535</v>
       </c>
-      <c r="E14" s="31" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>11.  Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="n">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8">
         <v>67</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="14">
         <v>401607</v>
       </c>
-      <c r="E15" s="31" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>12.  Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9">
         <v>45</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="11">
         <v>209492</v>
       </c>
-      <c r="E16" s="31" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>13.  Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="n">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8">
         <v>48</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="14">
         <v>210533</v>
       </c>
-      <c r="E17" s="31" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>14.  Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9">
         <v>26</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="11">
         <v>65734</v>
       </c>
-      <c r="E18" s="31" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>15.  Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="n">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8">
         <v>39</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="14">
         <v>193934</v>
       </c>
-      <c r="E19" s="31" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>16.  Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9">
         <v>43</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="11">
         <v>230112</v>
       </c>
-      <c r="E20" s="31" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>17.  Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="n">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="14">
         <v>102880</v>
       </c>
-      <c r="E21" s="31" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>18.  Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="11">
         <v>29352</v>
       </c>
-      <c r="E22" s="31" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>19.  Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="n">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8">
         <v>40</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="14">
         <v>100270</v>
       </c>
-      <c r="E23" s="31" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="inlineStr">
-        <is>
-          <t>Nota: No incluye las zonas verdes del antiguo cauce del río Turia ni la de los cementerios municipales. Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-      <c r="B24" s="23" t="n"/>
-      <c r="C24" s="23" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="3" min="3" max="3"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="32.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="3" min="3" max="16384"/>
+    <col min="1" max="1" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>3. Superficie de los parques urbanos municipales. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>Parques urbanos</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="29">
         <v>586092</v>
       </c>
-      <c r="D4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>Parque de Nazaret</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n">
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14">
         <v>35108</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Parque de la Rambleta</t>
-        </is>
-      </c>
-      <c r="B6" s="23" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11">
         <v>51891</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Benicalap</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14">
         <v>85000</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Parque Oeste</t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11">
         <v>43750</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parque Orriols </t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="14">
         <v>43977</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Parque Marxalenes</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11">
         <v>60000</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Dr. Lluch</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14">
         <v>18294</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Pinar de les Pedreres</t>
-        </is>
-      </c>
-      <c r="B12" s="23" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="11">
         <v>13012</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Parque Central</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="14">
         <v>102000</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Parque Malilla</t>
-        </is>
-      </c>
-      <c r="B14" s="23" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="11">
         <v>48703</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Campus Tarongers (Jardín Central)</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="14">
         <v>24203</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Parque de desembocadura</t>
-        </is>
-      </c>
-      <c r="B16" s="23" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="11">
         <v>60154</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="20" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
-        </is>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="32.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="3" min="3" max="16384"/>
+    <col min="1" max="1" width="32.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>4. Superficie de los jardines de especial protección. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>Jardines de especial protección</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="29">
         <v>515819.94</v>
       </c>
-      <c r="C4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>Jardines del Real</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n">
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="14">
         <v>187247</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>La Alameda</t>
-        </is>
-      </c>
-      <c r="B6" s="23" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="11">
         <v>55239</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Av. Blasco Ibáñez (Tramo I)</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="14">
         <v>46051</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Jardín de Ayora</t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11">
         <v>44520</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Jardín de Polífilo</t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="14">
         <v>39399</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Gran Vía Fernando el Católico</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11">
         <v>18750</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillem de Castro-Hospital </t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14">
         <v>16938.5</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Gran Vía Marqués del Turia</t>
-        </is>
-      </c>
-      <c r="B12" s="23" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="11">
         <v>15521</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Alameditas de Serranos</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14">
         <v>14673.7</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Jardín de Monforte</t>
-        </is>
-      </c>
-      <c r="B14" s="23" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="11">
         <v>12597</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Gran Vía Ramón y Cajal</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n">
-        <v>9125.299999999999</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>La Glorieta</t>
-        </is>
-      </c>
-      <c r="B16" s="23" t="n">
-        <v>9140.799999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Avenida Reino de València</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="14">
+        <v>9125.2999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9140.7999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="14">
         <v>7405.96</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>Jardín del chalet de Panach</t>
-        </is>
-      </c>
-      <c r="B18" s="23" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="11">
         <v>5904</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="3">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>El Parterre</t>
-        </is>
-      </c>
-      <c r="B19" s="14" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="14">
         <v>5565</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="3">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calle Dr. Juan José Dómine </t>
-        </is>
-      </c>
-      <c r="B20" s="23" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="11">
         <v>5550</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="3">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>Jardín de las Hespérides</t>
-        </is>
-      </c>
-      <c r="B21" s="14" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="3">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>Alameditas de Cervantes</t>
-        </is>
-      </c>
-      <c r="B22" s="23" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="11">
         <v>3266.4</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="3">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>Plaza la Reina</t>
-        </is>
-      </c>
-      <c r="B23" s="14" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14">
         <v>744</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="3">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>Plaza Don Juan de Villarrasa</t>
-        </is>
-      </c>
-      <c r="B24" s="23" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="11">
         <v>2103</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="3">
-      <c r="A25" s="16" t="inlineStr">
-        <is>
-          <t>Plaza de la Iglesia de Campanar</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="14">
         <v>1780</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="3">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>Plaza Porta del Mar</t>
-        </is>
-      </c>
-      <c r="B26" s="23" t="n">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="11">
         <v>1454</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="3">
-      <c r="A27" s="16" t="inlineStr">
-        <is>
-          <t>Plaza del Ayuntamiento</t>
-        </is>
-      </c>
-      <c r="B27" s="14" t="n">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="14">
         <v>1493.18</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="3">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>Plaza Vicente Iborra</t>
-        </is>
-      </c>
-      <c r="B28" s="23" t="n">
-        <v>1153.1</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="3">
-      <c r="A29" s="16" t="inlineStr">
-        <is>
-          <t>Jardines Iglesia de San Agustín</t>
-        </is>
-      </c>
-      <c r="B29" s="14" t="n">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1153.0999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="14">
         <v>881</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="3">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>Plaza del Carmen</t>
-        </is>
-      </c>
-      <c r="B30" s="23" t="n">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="11">
         <v>717</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="3">
-      <c r="A31" s="16" t="inlineStr">
-        <is>
-          <t>Jardines Palau de la Generalitat</t>
-        </is>
-      </c>
-      <c r="B31" s="14" t="n">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="14">
         <v>736</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="3">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>Calle Colón / Palacio de Justicia</t>
-        </is>
-      </c>
-      <c r="B32" s="23" t="n">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="11">
         <v>357</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="3">
-      <c r="A33" s="16" t="inlineStr">
-        <is>
-          <t>Chalet de Blasco Ibañez</t>
-        </is>
-      </c>
-      <c r="B33" s="14" t="n">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="14">
         <v>2808</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="20" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="20" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
-        </is>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.5703125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="3" min="3" max="16384"/>
+    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>5. Superficie de los jardines en el cauce del río Turia. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="3">
-      <c r="A3" s="32" t="n"/>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>Jardines en el Turia</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="29">
         <v>1234832</v>
       </c>
-      <c r="C4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>Parque de Cabecera</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n">
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14">
         <v>167869</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Tramo I-II</t>
-        </is>
-      </c>
-      <c r="B6" s="23" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
         <v>130880</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Tramo III</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="14">
         <v>83768</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Tramo IV-V</t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
         <v>148960</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Tramo VI</t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14">
         <v>129320</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Tramo VII</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11">
         <v>68800</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>Tramo VIII</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14">
         <v>75600</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Tramo IX</t>
-        </is>
-      </c>
-      <c r="B12" s="23" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11">
         <v>34439</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>Tramo X-XI</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14">
         <v>135275</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Tramo XII</t>
-        </is>
-      </c>
-      <c r="B14" s="23" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11">
         <v>126560</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>Tramo XIV</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14">
         <v>90985</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Tramo XVI</t>
-        </is>
-      </c>
-      <c r="B16" s="23" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11">
         <v>41176</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>Tramo XVII</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14">
         <v>1200</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Parques y Jardines. Ayuntamiento de València.</t>
-        </is>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja21">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="32.7109375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="7.5703125" customWidth="1" style="3" min="5" max="5"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="3">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>6. Superficie de las zonas verdes dependientes de la Universitat de València y la Universidad Politécnica de València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="19.35" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>Universidad Politécnica de València</t>
-        </is>
-      </c>
-      <c r="B4" s="23" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="11">
         <v>121376</v>
       </c>
-      <c r="C4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="27" t="inlineStr">
-        <is>
-          <t>Universitat de València</t>
-        </is>
-      </c>
-      <c r="B5" s="22" t="n">
-        <v>67502.70999999999</v>
-      </c>
-      <c r="D5" s="31" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Campus de Tarongers</t>
-        </is>
-      </c>
-      <c r="B6" s="23" t="n">
-        <v>14165.31</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Campus de Blasco Ibáñez</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
-        <v>14654.4</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="35" t="inlineStr">
-        <is>
-          <t>Jardín Botánico</t>
-        </is>
-      </c>
-      <c r="B8" s="23" t="n">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="22">
+        <v>67502.709999999992</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11">
+        <v>14165.310000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14">
+        <v>14654.399999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
         <v>38683</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie expresados en m2.</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n"/>
-      <c r="E9" s="31" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Mantenimiento de la Universidad Politécnica de València. Servicio Técnico y de Mantenimiento de la Universitat de València.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="n"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="80" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>